--- a/biology/Médecine/Muscle_masséter/Muscle_masséter.xlsx
+++ b/biology/Médecine/Muscle_masséter/Muscle_masséter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_mass%C3%A9ter</t>
+          <t>Muscle_masséter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle masséter ou le masséter (musculus masseter en latin) est un puissant muscle de l'appareil manducateur (= muscles de la mastication).
-Il est formé de quatre faisceaux, un superficiel, un intermédiaire, un profond et un coronoïde[1],[2].
+Il est formé de quatre faisceaux, un superficiel, un intermédiaire, un profond et un coronoïde,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_mass%C3%A9ter</t>
+          <t>Muscle_masséter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,24 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chez l'être humain le masséter présente l'anatomie suivante :
-Insertions crâniales (origine)
-Le faisceau superficiel s'insère sur les 2/3 antérieurs de l'arc zygomatique, dont une insertion sur le bord postéro-inférieur de l'os zygomatique, par une lame aponévrotique rejoignant la face latérale du muscle ;
-Le faisceau intermédiaire s'insère légèrement plus postérieurement au faisceau superficiel ;
-Le faisceau profond naît sur le bord inférieur de l'arc zygomatique, y compris le processus zygomatique de l'os temporal ;
-Le faisceau coronoïde s'insère sur la surface médiane du processus zygomatique de l'os temporal.
-Trajet
-Le faisceau superficiel est oblique en bas et en arrière ;
-Le faisceau intermédiaire est légèrement plus verticalisé. Il est presque totalement recouvert par le faisceau superficiel ;
-Le faisceau profond est vertical descendant ;
-Le faisceau coronoïde est oblique.
-Insertions caudales (terminaison)
-Le masséter s'insère sur la face latérale de la mandibule :
-Le faisceau superficiel se termine sur la partie inférieure de la branche montante de la mandibule (ramus mandibulaire), en recouvrant le gonion (angle de la mandibule) ;
-Le faisceau profond se termine sur la face latérale du ramus, au-dessus du superficiel en remontant jusqu'au processus coronoïde ;
-Le faisceau coronoïde se termine sur la racine et le postérieure du processus coronoïde.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'être humain le masséter présente l'anatomie suivante :
+</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_mass%C3%A9ter</t>
+          <t>Muscle_masséter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,14 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation et vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par le rameau massétérique du nerf temporo-massétérique, lui-même branche du nerf mandibulaire (V3).
-Le muscle est vascularisé par l'artère massétérique, branche issue du second segment de l'artère maxillaire.
-</t>
+          <t>Insertions crâniales (origine)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le faisceau superficiel s'insère sur les 2/3 antérieurs de l'arc zygomatique, dont une insertion sur le bord postéro-inférieur de l'os zygomatique, par une lame aponévrotique rejoignant la face latérale du muscle ;
+Le faisceau intermédiaire s'insère légèrement plus postérieurement au faisceau superficiel ;
+Le faisceau profond naît sur le bord inférieur de l'arc zygomatique, y compris le processus zygomatique de l'os temporal ;
+Le faisceau coronoïde s'insère sur la surface médiane du processus zygomatique de l'os temporal.</t>
         </is>
       </c>
     </row>
@@ -571,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_mass%C3%A9ter</t>
+          <t>Muscle_masséter</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,12 +593,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le faisceau superficiel est oblique en bas et en arrière ;
+Le faisceau intermédiaire est légèrement plus verticalisé. Il est presque totalement recouvert par le faisceau superficiel ;
+Le faisceau profond est vertical descendant ;
+Le faisceau coronoïde est oblique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_masséter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_mass%C3%A9ter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Insertions caudales (terminaison)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le masséter s'insère sur la face latérale de la mandibule :
+Le faisceau superficiel se termine sur la partie inférieure de la branche montante de la mandibule (ramus mandibulaire), en recouvrant le gonion (angle de la mandibule) ;
+Le faisceau profond se termine sur la face latérale du ramus, au-dessus du superficiel en remontant jusqu'au processus coronoïde ;
+Le faisceau coronoïde se termine sur la racine et le postérieure du processus coronoïde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_masséter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_mass%C3%A9ter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Innervation et vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le rameau massétérique du nerf temporo-massétérique, lui-même branche du nerf mandibulaire (V3).
+Le muscle est vascularisé par l'artère massétérique, branche issue du second segment de l'artère maxillaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_masséter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_mass%C3%A9ter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effectue une élévation de la mandibule grâce à sa composante oblique et peut donner une antépulsion à celle-ci pour positionner les incisives inférieures en avant par rapport aux incisives supérieures grâce cette fois-ci à sa composante horizontale[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effectue une élévation de la mandibule grâce à sa composante oblique et peut donner une antépulsion à celle-ci pour positionner les incisives inférieures en avant par rapport aux incisives supérieures grâce cette fois-ci à sa composante horizontale.
 </t>
         </is>
       </c>
